--- a/Measurements/WO3189/Surface resistance measurement/4point measurements.xlsx
+++ b/Measurements/WO3189/Surface resistance measurement/4point measurements.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\Measurements\WO3189\Surface resistance measurement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB51D0-44E1-4989-BB1B-30721D619F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>4-puntsweerstands metingen</t>
   </si>
@@ -33,19 +49,67 @@
     <t>Voltage -</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>Variance</t>
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>Mean (Ohm)</t>
+  </si>
+  <si>
+    <t>Mean (MOhm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurements do not show negative resistance, so not sure if this is measured with the sourcemeter in 4-wire mode </t>
+  </si>
+  <si>
+    <t>Therefore these might all be 2-point measurements</t>
+  </si>
+  <si>
+    <t>Rvertical</t>
+  </si>
+  <si>
+    <t>Rhorizontal</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>See wikipedia of vdP method</t>
+  </si>
+  <si>
+    <t>Solved with scipy.optimize.fsolve</t>
+  </si>
+  <si>
+    <t>R mean (MOhm)</t>
+  </si>
+  <si>
+    <t>R std (MOhm)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Angstrom</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>Ohm cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -104,11 +168,50 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -127,10 +230,21 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,14 +252,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -175,25 +292,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -208,25 +325,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>39190178.390087225</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>37171911.189340457</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>53079572.944228694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57122044.922071695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39568521.167576559</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37605940.21613206</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>39190178.390087225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39568521.167576559</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53079572.944228694</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>54528070.074682213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57122044.922071695</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1211898040.2932677</c:v>
@@ -235,6 +352,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F95-4DD4-9E6D-EEE009021DDC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -283,7 +405,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -302,20 +423,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -334,19 +461,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G10" totalsRowShown="0">
-  <autoFilter ref="A2:G10"/>
-  <sortState ref="B3:G10">
-    <sortCondition ref="F2:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:H11" totalsRowCount="1">
+  <autoFilter ref="A2:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H10">
+    <sortCondition ref="A2:A10"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="7" name="Order" dataDxfId="0"/>
-    <tableColumn id="1" name="Current +"/>
-    <tableColumn id="2" name="Current -"/>
-    <tableColumn id="3" name="Voltage +"/>
-    <tableColumn id="4" name="Voltage -"/>
-    <tableColumn id="5" name="Mean" dataDxfId="2"/>
-    <tableColumn id="6" name="Variance" dataDxfId="1"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Order" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Current +"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current -"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Voltage +"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Voltage -"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mean (Ohm)" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="5">
+      <totalsRowFormula>AVERAGE(F3:F9)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F15AD861-4D1D-4A0E-82F5-CCC87515BA90}" name="Mean (MOhm)" dataDxfId="0" totalsRowDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[Mean (Ohm)]]*0.000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Variance" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3">
+      <totalsRowFormula>AVERAGE(H3:H9)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -395,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +562,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +614,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,31 +806,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="A1:XFD1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -677,44 +845,51 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>39190178.390087225</v>
+      </c>
+      <c r="G3" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>39.190178390087226</v>
+      </c>
+      <c r="H3" s="6">
+        <v>281162.05233898351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>37171911.189340457</v>
-      </c>
-      <c r="G3" s="6">
-        <v>178309.3946071812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
@@ -723,128 +898,152 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
+        <v>37171911.189340457</v>
+      </c>
+      <c r="G4" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>37.171911189340456</v>
+      </c>
+      <c r="H4" s="6">
+        <v>178309.3946071812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>53079572.944228694</v>
+      </c>
+      <c r="G5" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>53.079572944228694</v>
+      </c>
+      <c r="H5" s="2">
+        <v>369524.2997945078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>57122044.922071695</v>
+      </c>
+      <c r="G6" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>57.122044922071694</v>
+      </c>
+      <c r="H6" s="2">
+        <v>176879.24680661529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>39568521.167576559</v>
+      </c>
+      <c r="G7" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>39.568521167576556</v>
+      </c>
+      <c r="H7" s="6">
+        <v>210249.53008945158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>37605940.21613206</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G8" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>37.605940216132055</v>
+      </c>
+      <c r="H8" s="6">
         <v>88475.145818390098</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>39190178.390087225</v>
-      </c>
-      <c r="G5" s="6">
-        <v>281162.05233898351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>39568521.167576559</v>
-      </c>
-      <c r="G6" s="6">
-        <v>210249.53008945158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>53079572.944228694</v>
-      </c>
-      <c r="G7" s="2">
-        <v>369524.2997945078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>54528070.074682213</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>54.528070074682212</v>
+      </c>
+      <c r="H9" s="2">
         <v>956669.02621106955</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>57122044.922071695</v>
-      </c>
-      <c r="G9" s="2">
-        <v>176879.24680661529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -863,8 +1062,135 @@
       <c r="F10" s="4">
         <v>1211898040.2932677</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
+        <f>Table1[[#This Row],[Mean (Ohm)]]*0.000001</f>
+        <v>1211.8980402932677</v>
+      </c>
+      <c r="H10" s="4">
         <v>173499338.9682318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="F11" s="7">
+        <f>AVERAGE(F3:F9)</f>
+        <v>45466605.557731271</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f>AVERAGE(H3:H9)</f>
+        <v>323038.38509517128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10">
+        <f>AVERAGE(F3,F5,F7)*0.000001</f>
+        <v>43.946090833964156</v>
+      </c>
+      <c r="D18" s="10">
+        <f>_xlfn.STDEV.P(F3,F5,F7)*0.000001</f>
+        <v>6.4601938778033423</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10">
+        <f>AVERAGE(F4,F6,F8,F9)*0.000001</f>
+        <v>46.606991600556604</v>
+      </c>
+      <c r="D19" s="10">
+        <f>_xlfn.STDEV.P(F4,F6,F8,F9)*0.000001</f>
+        <v>9.2648461797636994</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11">
+        <v>205.16388867000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>3.734</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <f>C23*C24/10</f>
+        <v>9.3349999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11">
+        <f>C21*C25/10</f>
+        <v>191.52049007344499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -878,24 +1204,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
